--- a/RealProject/kids_parents_from_kids_debug23.xlsx
+++ b/RealProject/kids_parents_from_kids_debug23.xlsx
@@ -623,7 +623,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -644,7 +644,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>

--- a/RealProject/kids_parents_from_kids_debug23.xlsx
+++ b/RealProject/kids_parents_from_kids_debug23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,16 +525,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Arabaj El Bouslami Ayman</t>
+          <t>El Assrouti Ilyas</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-646697186</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -546,16 +546,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bakhtaoui Tasnim</t>
+          <t>El Bali Imran</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Jamal Bakhtaoui</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -567,16 +567,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Barta Adam</t>
+          <t>El Bouazzati Rawan</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Abdellatif Barta</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -588,16 +588,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>43</v>
+        <v>129</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ben Nasser Rania</t>
+          <t>El Khayati Anwar</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1786984637</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -609,53 +609,53 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Chochouh Maryam</t>
+          <t>El Nouhaiter Ibrahim</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Said Chochouh</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>83</v>
+        <v>151</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Chochouh Zaynab</t>
+          <t>El Omari Sara</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Said Chochouh</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>96</v>
+        <v>155</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>El Assrouti Ilyas</t>
+          <t>El Ouardani Youssef</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -672,11 +672,11 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>107</v>
+        <v>161</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>El Bali Imran</t>
+          <t>El Otmani Kawtar</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -693,11 +693,11 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>109</v>
+        <v>165</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>El Bouazzati Rawan</t>
+          <t>Ettaissi Ilias</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -714,11 +714,11 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>129</v>
+        <v>166</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>El Khayati Anwar</t>
+          <t>Ettaissi Jasmin</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -735,11 +735,11 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>El Nouhaiter Ibrahim</t>
+          <t>Hamidi Youssef</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -756,11 +756,11 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>151</v>
+        <v>197</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>El Omari Sara</t>
+          <t>Jerroudi Fatima</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -777,11 +777,11 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>155</v>
+        <v>198</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>El Ouardani Youssef</t>
+          <t xml:space="preserve">Jerroudi Firdaus </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -798,11 +798,11 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>161</v>
+        <v>199</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>El Otmani Kawtar</t>
+          <t>Jerroudi Mohamed</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -819,11 +819,11 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>165</v>
+        <v>206</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ettaissi Ilias</t>
+          <t>Kapiti Amar</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -840,11 +840,11 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>166</v>
+        <v>232</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Ettaissi Jasmin</t>
+          <t xml:space="preserve">Maatouki Israe </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -861,11 +861,11 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>176</v>
+        <v>245</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Hamidi Youssef</t>
+          <t>Montassir Rita</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -882,16 +882,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>179</v>
+        <v>246</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Hannun Amira</t>
+          <t>Montassir Sophia</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Nour-Eddine Hannun</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -903,16 +903,16 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>180</v>
+        <v>251</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Hannun Jana</t>
+          <t>Mtibaa Youssef</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Nour-Eddine Hannun</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -924,16 +924,16 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>181</v>
+        <v>262</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Hannun Nassim</t>
+          <t>Özenir Meryem</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Nour-Eddine Hannun</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -945,16 +945,16 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>184</v>
+        <v>281</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Harchaoui Yassir</t>
+          <t>Sultani Elias</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Hassan Harchaoui</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -966,11 +966,11 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>197</v>
+        <v>288</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Jerroudi Fatima</t>
+          <t xml:space="preserve">Tawuz Hassan </t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -987,11 +987,11 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>198</v>
+        <v>290</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jerroudi Firdaus </t>
+          <t>Toubi Yousra</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1001,472 +1001,10 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>199</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Jerroudi Mohamed</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>B0</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>202</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Kadiri Jannah</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Massud Kadiri</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>B0</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>203</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kadiri Maruan </t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Massud Kadiri</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>B0</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>206</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Kapiti Amar</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>B0</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>230</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Maarad Houda Nour</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>NAJIM MAARAD</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>B0</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>232</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Maatouki Israe </t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>B0</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>234</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Mahria Marwa</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Mohamed Mahria</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>B0</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>245</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Montassir Rita</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>B0</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>246</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Montassir Sophia</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>B0</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>251</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Mtibaa Youssef</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>B0</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>254</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Ouadi Abderrahman</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Abdelhalim Ouadi</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>B0</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>255</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Ouadi Nouh</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Abdelhalim Ouadi</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>B0</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>258</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Oughannou Layal </t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>1729385627</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>B0</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>259</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Oughannou Sofia </t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>1729385627</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>B0</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>262</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Özenir Meryem</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>B0</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>271</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Sarrar Musa</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Fikri El Khatabi El Hassnaoui undHakima Moussaoui Sarrar</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>B0</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>273</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sghiri Mossaab </t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>ABDELHAMID SGHIRI</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>B0</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>274</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Sghiri Souahail</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>ABDELHAMID SGHIRI</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>B0</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>281</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Sultani Elias</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>B0</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>288</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tawuz Hassan </t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>B0</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>290</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Toubi Yousra</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>297</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Zakhnini Yasmin</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Hassan Zakhnini</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>B0</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/RealProject/kids_parents_from_kids_debug23.xlsx
+++ b/RealProject/kids_parents_from_kids_debug23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,16 +525,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>El Assrouti Ilyas</t>
+          <t>Arabaj El Bouslami Ayman</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-646697186</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -546,16 +546,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>107</v>
+        <v>32</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>El Bali Imran</t>
+          <t>Bakhtaoui Tasnim</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Jamal Bakhtaoui</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -567,16 +567,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>El Bouazzati Rawan</t>
+          <t>Barta Adam</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Abdellatif Barta</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -588,16 +588,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>El Khayati Anwar</t>
+          <t>Ben Nasser Rania</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1786984637</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -609,53 +609,53 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>El Nouhaiter Ibrahim</t>
+          <t>Chochouh Maryam</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Said Chochouh</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>151</v>
+        <v>83</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>El Omari Sara</t>
+          <t>Chochouh Zaynab</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Said Chochouh</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>El Ouardani Youssef</t>
+          <t>El Assrouti Ilyas</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -672,11 +672,11 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>161</v>
+        <v>107</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>El Otmani Kawtar</t>
+          <t>El Bali Imran</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -693,11 +693,11 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>165</v>
+        <v>109</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ettaissi Ilias</t>
+          <t>El Bouazzati Rawan</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -714,11 +714,11 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Ettaissi Jasmin</t>
+          <t>El Khayati Anwar</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -735,11 +735,11 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Hamidi Youssef</t>
+          <t>El Nouhaiter Ibrahim</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -756,11 +756,11 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>197</v>
+        <v>151</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Jerroudi Fatima</t>
+          <t>El Omari Sara</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -777,11 +777,11 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>198</v>
+        <v>155</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jerroudi Firdaus </t>
+          <t>El Ouardani Youssef</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -798,11 +798,11 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>199</v>
+        <v>161</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Jerroudi Mohamed</t>
+          <t>El Otmani Kawtar</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -819,11 +819,11 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>206</v>
+        <v>165</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Kapiti Amar</t>
+          <t>Ettaissi Ilias</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -840,11 +840,11 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>232</v>
+        <v>166</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Maatouki Israe </t>
+          <t>Ettaissi Jasmin</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -861,11 +861,11 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>245</v>
+        <v>176</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Montassir Rita</t>
+          <t>Hamidi Youssef</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -882,16 +882,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>246</v>
+        <v>179</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Montassir Sophia</t>
+          <t>Hannun Amira</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Nour-Eddine Hannun</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -903,16 +903,16 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251</v>
+        <v>180</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Mtibaa Youssef</t>
+          <t>Hannun Jana</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Nour-Eddine Hannun</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -924,16 +924,16 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>262</v>
+        <v>181</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Özenir Meryem</t>
+          <t>Hannun Nassim</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Nour-Eddine Hannun</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -945,16 +945,16 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>281</v>
+        <v>184</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Sultani Elias</t>
+          <t>Harchaoui Yassir</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Hassan Harchaoui</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -966,11 +966,11 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>288</v>
+        <v>197</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tawuz Hassan </t>
+          <t>Jerroudi Fatima</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -987,24 +987,486 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
+        <v>198</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jerroudi Firdaus </t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>199</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Jerroudi Mohamed</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>202</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Kadiri Jannah</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Massud Kadiri</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>203</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kadiri Maruan </t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Massud Kadiri</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>206</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Kapiti Amar</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>230</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Maarad Houda Nour</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>NAJIM MAARAD</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>232</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maatouki Israe </t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>234</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Mahria Marwa</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Mohamed Mahria</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>245</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Montassir Rita</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>246</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Montassir Sophia</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>251</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Mtibaa Youssef</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>254</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Ouadi Abderrahman</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Abdelhalim Ouadi</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>255</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Ouadi Nouh</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Abdelhalim Ouadi</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>258</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oughannou Layal </t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>1729385627</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>259</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oughannou Sofia </t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1729385627</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>262</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Özenir Meryem</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>271</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Sarrar Musa</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Fikri El Khatabi El Hassnaoui undHakima Moussaoui Sarrar</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>273</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sghiri Mossaab </t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>ABDELHAMID SGHIRI</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>274</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Sghiri Souahail</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>ABDELHAMID SGHIRI</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>281</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Sultani Elias</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>288</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tawuz Hassan </t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
         <v>290</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>Toubi Yousra</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>A5</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>297</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Zakhnini Yasmin</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Hassan Zakhnini</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
